--- a/PV_PowerFactor_AverageDay.xlsx
+++ b/PV_PowerFactor_AverageDay.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marta\Desktop\Sustainable Energy\OMPS\Project\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5E3AB73-0DE6-4490-9348-5F5D1A1DCB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3A282E-64DC-4742-AE51-54833D3FC20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FED588B1-3CFE-4552-990E-16C25B2A9580}"/>
+    <workbookView xWindow="1020" yWindow="2835" windowWidth="21600" windowHeight="11295" xr2:uid="{FED588B1-3CFE-4552-990E-16C25B2A9580}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,10 +105,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,194 +460,217 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="5">
+        <f>A2+1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A25" si="0">A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>0.125</v>
-      </c>
-      <c r="B5" s="5">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>2.7959199999999999E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="B7" s="5">
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
         <v>3.1595483000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>0.116722137</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
         <v>0.243257837</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
         <v>0.38657723300000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>0.375</v>
-      </c>
-      <c r="B11" s="5">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
         <v>0.49049167399999999</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B12" s="3">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
         <v>0.54557176399999996</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
         <v>0.55576029599999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.520142836</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="B15" s="5">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
         <v>0.45243998099999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="B16" s="3">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
         <v>0.34673754000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="B17" s="5">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
         <v>0.21587641299999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B18" s="3">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
         <v>0.103626829</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B19" s="5">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
         <v>2.9413102E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="B20" s="3">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
         <v>2.9164830000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B21" s="5">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B22" s="3">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>0.875</v>
-      </c>
-      <c r="B23" s="5">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="B24" s="3">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="B25" s="5">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
         <v>0</v>
       </c>
     </row>
